--- a/datas/HaoFang_SoSo_test_datas.xlsx
+++ b/datas/HaoFang_SoSo_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" activeTab="3"/>
+    <workbookView windowWidth="17325" windowHeight="9585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="搜搜-图片列表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -129,7 +129,7 @@
     <t>soso_sale_test_001</t>
   </si>
   <si>
-    <t>正常进入搜搜页面，返回出售中的房子</t>
+    <t>正常进入搜搜页面过滤虚假和过滤中介，返回出售中的房子</t>
   </si>
   <si>
     <t>有效的clientkey</t>
@@ -138,7 +138,7 @@
     <t>http://hft.myfun7.com/sosoWeb/soso/house/getSoSoSaleList</t>
   </si>
   <si>
-    <t>{"fakeHouseFlag":"0","intermediaryHouseFlag":"0","pageRowTotal":"0","pageRows":"50","time":"4"}</t>
+    <t>{"fakeHouseFlag":"1","intermediaryHouseFlag":"1","pageRowTotal":"0","pageRows":"50","time":"4"}</t>
   </si>
   <si>
     <t>{"errCode":200}</t>
@@ -237,10 +237,14 @@
     <t>soso_sale_test_012</t>
   </si>
   <si>
-    <t>按关键字“英郡”来搜索出售中的房源</t>
-  </si>
-  <si>
-    <t>{"fakeHouseFlag":"0","intermediaryHouseFlag":"0","keywords":"英郡","pageOffset":"1","pageRowTotal":"0","pageRows":"50","time":"4","useage":""}</t>
+    <t>按关键字“中铁银杏广场”来搜索出售中的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.搜搜数据库中存在要搜搜的楼盘</t>
+  </si>
+  <si>
+    <t>{"fakeHouseFlag":"1","intermediaryHouseFlag":"1","keywords":"中铁银杏广场","pageOffset":"1","pageRowTotal":"0","pageRows":"50","time":"4"}</t>
   </si>
   <si>
     <t>soso_sale_info
@@ -347,6 +351,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -356,7 +368,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -370,24 +405,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,14 +444,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -431,21 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -454,23 +473,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,85 +489,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,78 +651,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,12 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +680,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -697,58 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,15 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,16 +800,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,115 +818,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1891,7 +1895,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1903,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -1938,7 +1942,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1992,83 +1996,83 @@
     </row>
     <row r="2" ht="94.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2079,31 +2083,31 @@
     </row>
     <row r="5" ht="94.5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2123,8 +2127,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2178,10 +2182,10 @@
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -2190,19 +2194,19 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/datas/HaoFang_SoSo_test_datas.xlsx
+++ b/datas/HaoFang_SoSo_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="搜搜-图片列表" sheetId="2" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>http://hft.myfun7.com/erpWeb/soso/house/getSOSOConvertDetectData</t>
   </si>
   <si>
-    <t>{"inTime":"2020-04-10 10:21:32","sosoId":"1690141940","sosoProperty":"0","sosoType":"0","tbName":"","type":"1"}</t>
+    <t>{"inTime":"2020-04-10 10:21:32","sosoId":"1690141940","sosoProperty":"0","sosoType":"0","type":"1"}</t>
   </si>
   <si>
     <t>{"errCode":200,"phone":"18030899084"}</t>
@@ -322,8 +322,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -351,9 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,6 +360,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,53 +404,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -430,13 +414,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,8 +435,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,9 +458,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -489,175 +489,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,15 +680,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,6 +694,51 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,36 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -766,17 +772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,16 +800,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,109 +818,109 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2127,8 +2127,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
